--- a/resources/Carbon Output.xlsx
+++ b/resources/Carbon Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\2022-forge-hackathon\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87806068-AC54-481B-9C47-43BBD7BFC874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D4763-3FAF-4D61-8D98-85A981765D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15840" yWindow="3204" windowWidth="30960" windowHeight="12204" xr2:uid="{72F3FF9F-4847-4C64-A4D9-E83B3D4C2F16}"/>
   </bookViews>
